--- a/biology/Botanique/Jardin_de_la_paix_(Riga)/Jardin_de_la_paix_(Riga).xlsx
+++ b/biology/Botanique/Jardin_de_la_paix_(Riga)/Jardin_de_la_paix_(Riga).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le  jardin de la Paix (en letton : Miera dārzs) est un parc public du voisinage Maskavas forštate à Riga en Lettonie.
 </t>
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin de la paix est délimité par les rues Katoļu iela, Kalupes  iela, Daugavpils iela et Jēkabpils  iela. 
 La rue Jēkabpils  iela le sépare du jardin Klusais dārzs. 
@@ -545,7 +559,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc a été créé en 1908 sur le territoire où se trouvaient les cimetières des pauvres de 1773 à 1872. 
 La planification avait déjà eu lieu en 1904, lorsque Georg Kuphaldt créa les plans de ce parc. 
@@ -561,7 +577,7 @@
 À la fin des années 1920, la transformation du jardin commença selon le projet d'Andrejs Zeidaks. 
 Andrejs Zeidaks pensait que le jardin ne répondait plus aux exigences de l'époque. 
 Des terrains de jeux et des espaces de concert ont été aménagés dans le jardin. La superficie du jardin a été augmentée en ajoutant le territoire du cimetière catholique fermé. Dans cette partie du jardin, selon le croquis de l'architecte A. Biseniekas, une conque musicale a été construite et une zone de concert pour 5 000 spectateurs a été aménagée. En 1927, le vase Memento mori (souviens-toi de la mort), sculpte en pierre artificielle par le sculpteur Rihards Maur, fut placé dans le parc.
-Après la Seconde Guerre mondiale, le jardin a été replanté. Il a été légèrement agrandi dans les années 1960. Dans le paysage du jardin, les trembles,  qui s'élèvent au-dessus des autres arbres, se détachent nettement du fond des autres arbres. Les vieux mélèzes d'Europe confèrent également à la verdure un caractère unique. Au printemps, les aubépine épanouissent leurs grandes fleurs roses. Environ 11 espèces d'arbres et d'arbustes locales poussent dans le jardin, ainsi que 45 espèces de plantes importées[1].
+Après la Seconde Guerre mondiale, le jardin a été replanté. Il a été légèrement agrandi dans les années 1960. Dans le paysage du jardin, les trembles,  qui s'élèvent au-dessus des autres arbres, se détachent nettement du fond des autres arbres. Les vieux mélèzes d'Europe confèrent également à la verdure un caractère unique. Au printemps, les aubépine épanouissent leurs grandes fleurs roses. Environ 11 espèces d'arbres et d'arbustes locales poussent dans le jardin, ainsi que 45 espèces de plantes importées.
 </t>
         </is>
       </c>
